--- a/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Tnc-Itgav.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Tnc-Itgav.xlsx
@@ -540,16 +540,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>17.21384166666667</v>
+        <v>22.14384766666667</v>
       </c>
       <c r="H2">
-        <v>51.641525</v>
+        <v>66.431543</v>
       </c>
       <c r="I2">
-        <v>0.04508658556266565</v>
+        <v>0.05562336639723622</v>
       </c>
       <c r="J2">
-        <v>0.04508658556266566</v>
+        <v>0.0556233663972362</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -558,28 +558,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>18.382477</v>
+        <v>22.495411</v>
       </c>
       <c r="N2">
-        <v>55.147431</v>
+        <v>67.486233</v>
       </c>
       <c r="O2">
-        <v>0.06380158579420245</v>
+        <v>0.08292345339295874</v>
       </c>
       <c r="P2">
-        <v>0.06380158579420245</v>
+        <v>0.08292345339295874</v>
       </c>
       <c r="Q2">
-        <v>316.4330485191417</v>
+        <v>498.1349543830577</v>
       </c>
       <c r="R2">
-        <v>2847.897436672275</v>
+        <v>4483.214589447519</v>
       </c>
       <c r="S2">
-        <v>0.002876595656944062</v>
+        <v>0.004612481631000685</v>
       </c>
       <c r="T2">
-        <v>0.002876595656944062</v>
+        <v>0.004612481631000684</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -602,16 +602,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>17.21384166666667</v>
+        <v>22.14384766666667</v>
       </c>
       <c r="H3">
-        <v>51.641525</v>
+        <v>66.431543</v>
       </c>
       <c r="I3">
-        <v>0.04508658556266565</v>
+        <v>0.05562336639723622</v>
       </c>
       <c r="J3">
-        <v>0.04508658556266566</v>
+        <v>0.0556233663972362</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -620,28 +620,28 @@
         <v>1</v>
       </c>
       <c r="M3">
-        <v>82.64333833333333</v>
+        <v>82.64333833333332</v>
       </c>
       <c r="N3">
         <v>247.930015</v>
       </c>
       <c r="O3">
-        <v>0.2868370808239535</v>
+        <v>0.3046430676248896</v>
       </c>
       <c r="P3">
-        <v>0.2868370808239535</v>
+        <v>0.3046430676248896</v>
       </c>
       <c r="Q3">
-        <v>1422.609340874764</v>
+        <v>1830.041494718127</v>
       </c>
       <c r="R3">
-        <v>12803.48406787288</v>
+        <v>16470.37345246314</v>
       </c>
       <c r="S3">
-        <v>0.01293250458711442</v>
+        <v>0.01694527297087725</v>
       </c>
       <c r="T3">
-        <v>0.01293250458711442</v>
+        <v>0.01694527297087724</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -664,16 +664,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>17.21384166666667</v>
+        <v>22.14384766666667</v>
       </c>
       <c r="H4">
-        <v>51.641525</v>
+        <v>66.431543</v>
       </c>
       <c r="I4">
-        <v>0.04508658556266565</v>
+        <v>0.05562336639723622</v>
       </c>
       <c r="J4">
-        <v>0.04508658556266566</v>
+        <v>0.0556233663972362</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -682,28 +682,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>91.25099666666667</v>
+        <v>79.32606499999999</v>
       </c>
       <c r="N4">
-        <v>273.75299</v>
+        <v>237.978195</v>
       </c>
       <c r="O4">
-        <v>0.3167123936907313</v>
+        <v>0.2924148064631633</v>
       </c>
       <c r="P4">
-        <v>0.3167123936907314</v>
+        <v>0.2924148064631633</v>
       </c>
       <c r="Q4">
-        <v>1570.780208545528</v>
+        <v>1756.584299356098</v>
       </c>
       <c r="R4">
-        <v>14137.02187690975</v>
+        <v>15809.25869420488</v>
       </c>
       <c r="S4">
-        <v>0.01427948043689381</v>
+        <v>0.01626509591987745</v>
       </c>
       <c r="T4">
-        <v>0.01427948043689381</v>
+        <v>0.01626509591987745</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -726,16 +726,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>17.21384166666667</v>
+        <v>22.14384766666667</v>
       </c>
       <c r="H5">
-        <v>51.641525</v>
+        <v>66.431543</v>
       </c>
       <c r="I5">
-        <v>0.04508658556266565</v>
+        <v>0.05562336639723622</v>
       </c>
       <c r="J5">
-        <v>0.04508658556266566</v>
+        <v>0.0556233663972362</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -744,28 +744,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>14.55416966666666</v>
+        <v>14.467164</v>
       </c>
       <c r="N5">
-        <v>43.66250899999999</v>
+        <v>43.401492</v>
       </c>
       <c r="O5">
-        <v>0.05051436238169709</v>
+        <v>0.05332941903938943</v>
       </c>
       <c r="P5">
-        <v>0.05051436238169709</v>
+        <v>0.05332941903938943</v>
       </c>
       <c r="Q5">
-        <v>250.5331722318028</v>
+        <v>320.358675784684</v>
       </c>
       <c r="R5">
-        <v>2254.798550086225</v>
+        <v>2883.228082062156</v>
       </c>
       <c r="S5">
-        <v>0.002277520121665885</v>
+        <v>0.002966361814979703</v>
       </c>
       <c r="T5">
-        <v>0.002277520121665885</v>
+        <v>0.002966361814979703</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -788,16 +788,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>17.21384166666667</v>
+        <v>22.14384766666667</v>
       </c>
       <c r="H6">
-        <v>51.641525</v>
+        <v>66.431543</v>
       </c>
       <c r="I6">
-        <v>0.04508658556266565</v>
+        <v>0.05562336639723622</v>
       </c>
       <c r="J6">
-        <v>0.04508658556266566</v>
+        <v>0.0556233663972362</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,28 +806,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>81.28845566666666</v>
+        <v>72.34725666666667</v>
       </c>
       <c r="N6">
-        <v>243.865367</v>
+        <v>217.04177</v>
       </c>
       <c r="O6">
-        <v>0.2821345773094156</v>
+        <v>0.2666892534795989</v>
       </c>
       <c r="P6">
-        <v>0.2821345773094157</v>
+        <v>0.2666892534795989</v>
       </c>
       <c r="Q6">
-        <v>1399.286605173853</v>
+        <v>1602.046630727901</v>
       </c>
       <c r="R6">
-        <v>12593.57944656467</v>
+        <v>14418.41967655111</v>
       </c>
       <c r="S6">
-        <v>0.01272048476004747</v>
+        <v>0.01483415406050113</v>
       </c>
       <c r="T6">
-        <v>0.01272048476004748</v>
+        <v>0.01483415406050113</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -856,10 +856,10 @@
         <v>1040.241456</v>
       </c>
       <c r="I7">
-        <v>0.9082019830315988</v>
+        <v>0.8709978578802913</v>
       </c>
       <c r="J7">
-        <v>0.908201983031599</v>
+        <v>0.8709978578802913</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -868,28 +868,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>18.382477</v>
+        <v>22.495411</v>
       </c>
       <c r="N7">
-        <v>55.147431</v>
+        <v>67.486233</v>
       </c>
       <c r="O7">
-        <v>0.06380158579420245</v>
+        <v>0.08292345339295874</v>
       </c>
       <c r="P7">
-        <v>0.06380158579420245</v>
+        <v>0.08292345339295874</v>
       </c>
       <c r="Q7">
-        <v>6374.071546455504</v>
+        <v>7800.219697319471</v>
       </c>
       <c r="R7">
-        <v>57366.64391809954</v>
+        <v>70201.97727587525</v>
       </c>
       <c r="S7">
-        <v>0.05794472673885535</v>
+        <v>0.07222615027330323</v>
       </c>
       <c r="T7">
-        <v>0.05794472673885536</v>
+        <v>0.07222615027330323</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -918,10 +918,10 @@
         <v>1040.241456</v>
       </c>
       <c r="I8">
-        <v>0.9082019830315988</v>
+        <v>0.8709978578802913</v>
       </c>
       <c r="J8">
-        <v>0.908201983031599</v>
+        <v>0.8709978578802913</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -930,28 +930,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>82.64333833333333</v>
+        <v>82.64333833333332</v>
       </c>
       <c r="N8">
         <v>247.930015</v>
       </c>
       <c r="O8">
-        <v>0.2868370808239535</v>
+        <v>0.3046430676248896</v>
       </c>
       <c r="P8">
-        <v>0.2868370808239535</v>
+        <v>0.3046430676248896</v>
       </c>
       <c r="Q8">
-        <v>28656.34219885576</v>
+        <v>28656.34219885575</v>
       </c>
       <c r="R8">
         <v>257907.0797897018</v>
       </c>
       <c r="S8">
-        <v>0.2605060056113095</v>
+        <v>0.2653434593193596</v>
       </c>
       <c r="T8">
-        <v>0.2605060056113096</v>
+        <v>0.2653434593193596</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -980,10 +980,10 @@
         <v>1040.241456</v>
       </c>
       <c r="I9">
-        <v>0.9082019830315988</v>
+        <v>0.8709978578802913</v>
       </c>
       <c r="J9">
-        <v>0.908201983031599</v>
+        <v>0.8709978578802913</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -992,28 +992,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>91.25099666666667</v>
+        <v>79.32606499999999</v>
       </c>
       <c r="N9">
-        <v>273.75299</v>
+        <v>237.978195</v>
       </c>
       <c r="O9">
-        <v>0.3167123936907313</v>
+        <v>0.2924148064631633</v>
       </c>
       <c r="P9">
-        <v>0.3167123936907314</v>
+        <v>0.2924148064631633</v>
       </c>
       <c r="Q9">
-        <v>31641.02321132816</v>
+        <v>27506.08711811687</v>
       </c>
       <c r="R9">
-        <v>284769.2089019534</v>
+        <v>247554.7840630519</v>
       </c>
       <c r="S9">
-        <v>0.2876388240006066</v>
+        <v>0.2546926700418952</v>
       </c>
       <c r="T9">
-        <v>0.2876388240006068</v>
+        <v>0.2546926700418952</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1042,10 +1042,10 @@
         <v>1040.241456</v>
       </c>
       <c r="I10">
-        <v>0.9082019830315988</v>
+        <v>0.8709978578802913</v>
       </c>
       <c r="J10">
-        <v>0.908201983031599</v>
+        <v>0.8709978578802913</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1054,28 +1054,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>14.55416966666666</v>
+        <v>14.467164</v>
       </c>
       <c r="N10">
-        <v>43.66250899999999</v>
+        <v>43.401492</v>
       </c>
       <c r="O10">
-        <v>0.05051436238169709</v>
+        <v>0.05332941903938943</v>
       </c>
       <c r="P10">
-        <v>0.05051436238169709</v>
+        <v>0.05332941903938943</v>
       </c>
       <c r="Q10">
-        <v>5046.616881641455</v>
+        <v>5016.447914516927</v>
       </c>
       <c r="R10">
-        <v>45419.5519347731</v>
+        <v>45148.03123065235</v>
       </c>
       <c r="S10">
-        <v>0.04587724408663409</v>
+        <v>0.04644980974530862</v>
       </c>
       <c r="T10">
-        <v>0.04587724408663411</v>
+        <v>0.04644980974530862</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1104,10 +1104,10 @@
         <v>1040.241456</v>
       </c>
       <c r="I11">
-        <v>0.9082019830315988</v>
+        <v>0.8709978578802913</v>
       </c>
       <c r="J11">
-        <v>0.908201983031599</v>
+        <v>0.8709978578802913</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1116,28 +1116,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>81.28845566666666</v>
+        <v>72.34725666666667</v>
       </c>
       <c r="N11">
-        <v>243.865367</v>
+        <v>217.04177</v>
       </c>
       <c r="O11">
-        <v>0.2821345773094156</v>
+        <v>0.2666892534795989</v>
       </c>
       <c r="P11">
-        <v>0.2821345773094157</v>
+        <v>0.2666892534795989</v>
       </c>
       <c r="Q11">
-        <v>28186.54049289492</v>
+        <v>25086.20520417968</v>
       </c>
       <c r="R11">
-        <v>253678.8644360543</v>
+        <v>225775.8468376171</v>
       </c>
       <c r="S11">
-        <v>0.2562351825941932</v>
+        <v>0.2322857685004246</v>
       </c>
       <c r="T11">
-        <v>0.2562351825941933</v>
+        <v>0.2322857685004247</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1160,16 +1160,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G12">
-        <v>0.042542</v>
+        <v>0.1541363333333333</v>
       </c>
       <c r="H12">
-        <v>0.127626</v>
+        <v>0.462409</v>
       </c>
       <c r="I12">
-        <v>0.000111426232455776</v>
+        <v>0.0003871766945467397</v>
       </c>
       <c r="J12">
-        <v>0.000111426232455776</v>
+        <v>0.0003871766945467395</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1178,28 +1178,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>18.382477</v>
+        <v>22.495411</v>
       </c>
       <c r="N12">
-        <v>55.147431</v>
+        <v>67.486233</v>
       </c>
       <c r="O12">
-        <v>0.06380158579420245</v>
+        <v>0.08292345339295874</v>
       </c>
       <c r="P12">
-        <v>0.06380158579420245</v>
+        <v>0.08292345339295874</v>
       </c>
       <c r="Q12">
-        <v>0.7820273365340001</v>
+        <v>3.467360168366334</v>
       </c>
       <c r="R12">
-        <v>7.038246028806001</v>
+        <v>31.206241515297</v>
       </c>
       <c r="S12">
-        <v>7.109170329751936E-06</v>
+        <v>3.210602858508639E-05</v>
       </c>
       <c r="T12">
-        <v>7.109170329751937E-06</v>
+        <v>3.210602858508638E-05</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1222,16 +1222,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G13">
-        <v>0.042542</v>
+        <v>0.1541363333333333</v>
       </c>
       <c r="H13">
-        <v>0.127626</v>
+        <v>0.462409</v>
       </c>
       <c r="I13">
-        <v>0.000111426232455776</v>
+        <v>0.0003871766945467397</v>
       </c>
       <c r="J13">
-        <v>0.000111426232455776</v>
+        <v>0.0003871766945467395</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1240,28 +1240,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>82.64333833333333</v>
+        <v>82.64333833333332</v>
       </c>
       <c r="N13">
         <v>247.930015</v>
       </c>
       <c r="O13">
-        <v>0.2868370808239535</v>
+        <v>0.3046430676248896</v>
       </c>
       <c r="P13">
-        <v>0.2868370808239535</v>
+        <v>0.3046430676248896</v>
       </c>
       <c r="Q13">
-        <v>3.515812899376667</v>
+        <v>12.73834114512611</v>
       </c>
       <c r="R13">
-        <v>31.64231609439</v>
+        <v>114.645070306135</v>
       </c>
       <c r="S13">
-        <v>3.196117524482604E-05</v>
+        <v>0.0001179506959395836</v>
       </c>
       <c r="T13">
-        <v>3.196117524482605E-05</v>
+        <v>0.0001179506959395836</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1284,16 +1284,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G14">
-        <v>0.042542</v>
+        <v>0.1541363333333333</v>
       </c>
       <c r="H14">
-        <v>0.127626</v>
+        <v>0.462409</v>
       </c>
       <c r="I14">
-        <v>0.000111426232455776</v>
+        <v>0.0003871766945467397</v>
       </c>
       <c r="J14">
-        <v>0.000111426232455776</v>
+        <v>0.0003871766945467395</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1302,28 +1302,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>91.25099666666667</v>
+        <v>79.32606499999999</v>
       </c>
       <c r="N14">
-        <v>273.75299</v>
+        <v>237.978195</v>
       </c>
       <c r="O14">
-        <v>0.3167123936907313</v>
+        <v>0.2924148064631633</v>
       </c>
       <c r="P14">
-        <v>0.3167123936907314</v>
+        <v>0.2924148064631633</v>
       </c>
       <c r="Q14">
-        <v>3.881999900193334</v>
+        <v>12.22702879686167</v>
       </c>
       <c r="R14">
-        <v>34.93799910174</v>
+        <v>110.043259171755</v>
       </c>
       <c r="S14">
-        <v>3.529006880100866E-05</v>
+        <v>0.0001132161982029322</v>
       </c>
       <c r="T14">
-        <v>3.529006880100868E-05</v>
+        <v>0.0001132161982029321</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1346,16 +1346,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G15">
-        <v>0.042542</v>
+        <v>0.1541363333333333</v>
       </c>
       <c r="H15">
-        <v>0.127626</v>
+        <v>0.462409</v>
       </c>
       <c r="I15">
-        <v>0.000111426232455776</v>
+        <v>0.0003871766945467397</v>
       </c>
       <c r="J15">
-        <v>0.000111426232455776</v>
+        <v>0.0003871766945467395</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1364,28 +1364,28 @@
         <v>1</v>
       </c>
       <c r="M15">
-        <v>14.55416966666666</v>
+        <v>14.467164</v>
       </c>
       <c r="N15">
-        <v>43.66250899999999</v>
+        <v>43.401492</v>
       </c>
       <c r="O15">
-        <v>0.05051436238169709</v>
+        <v>0.05332941903938943</v>
       </c>
       <c r="P15">
-        <v>0.05051436238169709</v>
+        <v>0.05332941903938943</v>
       </c>
       <c r="Q15">
-        <v>0.6191634859593333</v>
+        <v>2.229915612692</v>
       </c>
       <c r="R15">
-        <v>5.572471373633999</v>
+        <v>20.069240514228</v>
       </c>
       <c r="S15">
-        <v>5.628625085098285E-06</v>
+        <v>2.064790818576876E-05</v>
       </c>
       <c r="T15">
-        <v>5.628625085098286E-06</v>
+        <v>2.064790818576876E-05</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1408,16 +1408,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G16">
-        <v>0.042542</v>
+        <v>0.1541363333333333</v>
       </c>
       <c r="H16">
-        <v>0.127626</v>
+        <v>0.462409</v>
       </c>
       <c r="I16">
-        <v>0.000111426232455776</v>
+        <v>0.0003871766945467397</v>
       </c>
       <c r="J16">
-        <v>0.000111426232455776</v>
+        <v>0.0003871766945467395</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1426,28 +1426,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>81.28845566666666</v>
+        <v>72.34725666666667</v>
       </c>
       <c r="N16">
-        <v>243.865367</v>
+        <v>217.04177</v>
       </c>
       <c r="O16">
-        <v>0.2821345773094156</v>
+        <v>0.2666892534795989</v>
       </c>
       <c r="P16">
-        <v>0.2821345773094157</v>
+        <v>0.2666892534795989</v>
       </c>
       <c r="Q16">
-        <v>3.458173480971333</v>
+        <v>11.15134086932556</v>
       </c>
       <c r="R16">
-        <v>31.123561328742</v>
+        <v>100.36206782393</v>
       </c>
       <c r="S16">
-        <v>3.143719299509104E-05</v>
+        <v>0.0001032558636333687</v>
       </c>
       <c r="T16">
-        <v>3.143719299509105E-05</v>
+        <v>0.0001032558636333687</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1470,16 +1470,16 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>17.72674266666666</v>
+        <v>28.90575466666667</v>
       </c>
       <c r="H17">
-        <v>53.18022799999999</v>
+        <v>86.717264</v>
       </c>
       <c r="I17">
-        <v>0.04642997858727191</v>
+        <v>0.07260867248616912</v>
       </c>
       <c r="J17">
-        <v>0.04642997858727192</v>
+        <v>0.07260867248616912</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1488,28 +1488,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>18.382477</v>
+        <v>22.495411</v>
       </c>
       <c r="N17">
-        <v>55.147431</v>
+        <v>67.486233</v>
       </c>
       <c r="O17">
-        <v>0.06380158579420245</v>
+        <v>0.08292345339295874</v>
       </c>
       <c r="P17">
-        <v>0.06380158579420245</v>
+        <v>0.08292345339295874</v>
       </c>
       <c r="Q17">
-        <v>325.8614393549186</v>
+        <v>650.2468314918347</v>
       </c>
       <c r="R17">
-        <v>2932.752954194268</v>
+        <v>5852.221483426511</v>
       </c>
       <c r="S17">
-        <v>0.002962306262258811</v>
+        <v>0.00602096186883145</v>
       </c>
       <c r="T17">
-        <v>0.002962306262258812</v>
+        <v>0.00602096186883145</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1532,16 +1532,16 @@
         <v>1</v>
       </c>
       <c r="G18">
-        <v>17.72674266666666</v>
+        <v>28.90575466666667</v>
       </c>
       <c r="H18">
-        <v>53.18022799999999</v>
+        <v>86.717264</v>
       </c>
       <c r="I18">
-        <v>0.04642997858727191</v>
+        <v>0.07260867248616912</v>
       </c>
       <c r="J18">
-        <v>0.04642997858727192</v>
+        <v>0.07260867248616912</v>
       </c>
       <c r="K18">
         <v>3</v>
@@ -1550,28 +1550,28 @@
         <v>1</v>
       </c>
       <c r="M18">
-        <v>82.64333833333333</v>
+        <v>82.64333833333332</v>
       </c>
       <c r="N18">
         <v>247.930015</v>
       </c>
       <c r="O18">
-        <v>0.2868370808239535</v>
+        <v>0.3046430676248896</v>
       </c>
       <c r="P18">
-        <v>0.2868370808239535</v>
+        <v>0.3046430676248896</v>
       </c>
       <c r="Q18">
-        <v>1464.997191749268</v>
+        <v>2388.868062697662</v>
       </c>
       <c r="R18">
-        <v>13184.97472574342</v>
+        <v>21499.81256427896</v>
       </c>
       <c r="S18">
-        <v>0.01331783952069174</v>
+        <v>0.02211972872235748</v>
       </c>
       <c r="T18">
-        <v>0.01331783952069174</v>
+        <v>0.02211972872235748</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1594,16 +1594,16 @@
         <v>1</v>
       </c>
       <c r="G19">
-        <v>17.72674266666666</v>
+        <v>28.90575466666667</v>
       </c>
       <c r="H19">
-        <v>53.18022799999999</v>
+        <v>86.717264</v>
       </c>
       <c r="I19">
-        <v>0.04642997858727191</v>
+        <v>0.07260867248616912</v>
       </c>
       <c r="J19">
-        <v>0.04642997858727192</v>
+        <v>0.07260867248616912</v>
       </c>
       <c r="K19">
         <v>3</v>
@@ -1612,28 +1612,28 @@
         <v>1</v>
       </c>
       <c r="M19">
-        <v>91.25099666666667</v>
+        <v>79.32606499999999</v>
       </c>
       <c r="N19">
-        <v>273.75299</v>
+        <v>237.978195</v>
       </c>
       <c r="O19">
-        <v>0.3167123936907313</v>
+        <v>0.2924148064631633</v>
       </c>
       <c r="P19">
-        <v>0.3167123936907314</v>
+        <v>0.2924148064631633</v>
       </c>
       <c r="Q19">
-        <v>1617.582935986857</v>
+        <v>2292.979773562053</v>
       </c>
       <c r="R19">
-        <v>14558.24642388172</v>
+        <v>20636.81796205848</v>
       </c>
       <c r="S19">
-        <v>0.01470494965738429</v>
+        <v>0.02123185091259035</v>
       </c>
       <c r="T19">
-        <v>0.01470494965738429</v>
+        <v>0.02123185091259035</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1656,16 +1656,16 @@
         <v>1</v>
       </c>
       <c r="G20">
-        <v>17.72674266666666</v>
+        <v>28.90575466666667</v>
       </c>
       <c r="H20">
-        <v>53.18022799999999</v>
+        <v>86.717264</v>
       </c>
       <c r="I20">
-        <v>0.04642997858727191</v>
+        <v>0.07260867248616912</v>
       </c>
       <c r="J20">
-        <v>0.04642997858727192</v>
+        <v>0.07260867248616912</v>
       </c>
       <c r="K20">
         <v>3</v>
@@ -1674,28 +1674,28 @@
         <v>1</v>
       </c>
       <c r="M20">
-        <v>14.55416966666666</v>
+        <v>14.467164</v>
       </c>
       <c r="N20">
-        <v>43.66250899999999</v>
+        <v>43.401492</v>
       </c>
       <c r="O20">
-        <v>0.05051436238169709</v>
+        <v>0.05332941903938943</v>
       </c>
       <c r="P20">
-        <v>0.05051436238169709</v>
+        <v>0.05332941903938943</v>
       </c>
       <c r="Q20">
-        <v>257.9980204080057</v>
+        <v>418.184293306432</v>
       </c>
       <c r="R20">
-        <v>2321.982183672051</v>
+        <v>3763.658639757888</v>
       </c>
       <c r="S20">
-        <v>0.00234538076373189</v>
+        <v>0.003872178320908699</v>
       </c>
       <c r="T20">
-        <v>0.00234538076373189</v>
+        <v>0.003872178320908699</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1718,16 +1718,16 @@
         <v>1</v>
       </c>
       <c r="G21">
-        <v>17.72674266666666</v>
+        <v>28.90575466666667</v>
       </c>
       <c r="H21">
-        <v>53.18022799999999</v>
+        <v>86.717264</v>
       </c>
       <c r="I21">
-        <v>0.04642997858727191</v>
+        <v>0.07260867248616912</v>
       </c>
       <c r="J21">
-        <v>0.04642997858727192</v>
+        <v>0.07260867248616912</v>
       </c>
       <c r="K21">
         <v>3</v>
@@ -1736,28 +1736,28 @@
         <v>1</v>
       </c>
       <c r="M21">
-        <v>81.28845566666666</v>
+        <v>72.34725666666667</v>
       </c>
       <c r="N21">
-        <v>243.865367</v>
+        <v>217.04177</v>
       </c>
       <c r="O21">
-        <v>0.2821345773094156</v>
+        <v>0.2666892534795989</v>
       </c>
       <c r="P21">
-        <v>0.2821345773094157</v>
+        <v>0.2666892534795989</v>
       </c>
       <c r="Q21">
-        <v>1440.979535373741</v>
+        <v>2091.252052013031</v>
       </c>
       <c r="R21">
-        <v>12968.81581836367</v>
+        <v>18821.26846811728</v>
       </c>
       <c r="S21">
-        <v>0.01309950238320518</v>
+        <v>0.01936395266148113</v>
       </c>
       <c r="T21">
-        <v>0.01309950238320518</v>
+        <v>0.01936395266148114</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1774,22 +1774,22 @@
         <v>20</v>
       </c>
       <c r="E22">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F22">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G22">
-        <v>0.06491533333333334</v>
+        <v>0.1524443333333333</v>
       </c>
       <c r="H22">
-        <v>0.194746</v>
+        <v>0.457333</v>
       </c>
       <c r="I22">
-        <v>0.0001700265860078083</v>
+        <v>0.0003829265417566354</v>
       </c>
       <c r="J22">
-        <v>0.0001700265860078083</v>
+        <v>0.0003829265417566354</v>
       </c>
       <c r="K22">
         <v>3</v>
@@ -1798,28 +1798,28 @@
         <v>1</v>
       </c>
       <c r="M22">
-        <v>18.382477</v>
+        <v>22.495411</v>
       </c>
       <c r="N22">
-        <v>55.147431</v>
+        <v>67.486233</v>
       </c>
       <c r="O22">
-        <v>0.06380158579420245</v>
+        <v>0.08292345339295874</v>
       </c>
       <c r="P22">
-        <v>0.06380158579420245</v>
+        <v>0.08292345339295874</v>
       </c>
       <c r="Q22">
-        <v>1.193304621947334</v>
+        <v>3.429297932954333</v>
       </c>
       <c r="R22">
-        <v>10.739741597526</v>
+        <v>30.863681396589</v>
       </c>
       <c r="S22">
-        <v>1.084796581447253E-05</v>
+        <v>3.175359123828323E-05</v>
       </c>
       <c r="T22">
-        <v>1.084796581447253E-05</v>
+        <v>3.175359123828323E-05</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1836,22 +1836,22 @@
         <v>21</v>
       </c>
       <c r="E23">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F23">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G23">
-        <v>0.06491533333333334</v>
+        <v>0.1524443333333333</v>
       </c>
       <c r="H23">
-        <v>0.194746</v>
+        <v>0.457333</v>
       </c>
       <c r="I23">
-        <v>0.0001700265860078083</v>
+        <v>0.0003829265417566354</v>
       </c>
       <c r="J23">
-        <v>0.0001700265860078083</v>
+        <v>0.0003829265417566354</v>
       </c>
       <c r="K23">
         <v>3</v>
@@ -1860,28 +1860,28 @@
         <v>1</v>
       </c>
       <c r="M23">
-        <v>82.64333833333333</v>
+        <v>82.64333833333332</v>
       </c>
       <c r="N23">
         <v>247.930015</v>
       </c>
       <c r="O23">
-        <v>0.2868370808239535</v>
+        <v>0.3046430676248896</v>
       </c>
       <c r="P23">
-        <v>0.2868370808239535</v>
+        <v>0.3046430676248896</v>
       </c>
       <c r="Q23">
-        <v>5.364819855687778</v>
+        <v>12.59850861666611</v>
       </c>
       <c r="R23">
-        <v>48.28337870119</v>
+        <v>113.386577549995</v>
       </c>
       <c r="S23">
-        <v>4.87699295929426E-05</v>
+        <v>0.0001166559163557318</v>
       </c>
       <c r="T23">
-        <v>4.87699295929426E-05</v>
+        <v>0.0001166559163557318</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1898,22 +1898,22 @@
         <v>22</v>
       </c>
       <c r="E24">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F24">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G24">
-        <v>0.06491533333333334</v>
+        <v>0.1524443333333333</v>
       </c>
       <c r="H24">
-        <v>0.194746</v>
+        <v>0.457333</v>
       </c>
       <c r="I24">
-        <v>0.0001700265860078083</v>
+        <v>0.0003829265417566354</v>
       </c>
       <c r="J24">
-        <v>0.0001700265860078083</v>
+        <v>0.0003829265417566354</v>
       </c>
       <c r="K24">
         <v>3</v>
@@ -1922,28 +1922,28 @@
         <v>1</v>
       </c>
       <c r="M24">
-        <v>91.25099666666667</v>
+        <v>79.32606499999999</v>
       </c>
       <c r="N24">
-        <v>273.75299</v>
+        <v>237.978195</v>
       </c>
       <c r="O24">
-        <v>0.3167123936907313</v>
+        <v>0.2924148064631633</v>
       </c>
       <c r="P24">
-        <v>0.3167123936907314</v>
+        <v>0.2924148064631633</v>
       </c>
       <c r="Q24">
-        <v>5.923588865615556</v>
+        <v>12.09280909488166</v>
       </c>
       <c r="R24">
-        <v>53.31229979054</v>
+        <v>108.835281853935</v>
       </c>
       <c r="S24">
-        <v>5.384952704559599E-05</v>
+        <v>0.000111973390597375</v>
       </c>
       <c r="T24">
-        <v>5.3849527045596E-05</v>
+        <v>0.000111973390597375</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1960,22 +1960,22 @@
         <v>23</v>
       </c>
       <c r="E25">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F25">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G25">
-        <v>0.06491533333333334</v>
+        <v>0.1524443333333333</v>
       </c>
       <c r="H25">
-        <v>0.194746</v>
+        <v>0.457333</v>
       </c>
       <c r="I25">
-        <v>0.0001700265860078083</v>
+        <v>0.0003829265417566354</v>
       </c>
       <c r="J25">
-        <v>0.0001700265860078083</v>
+        <v>0.0003829265417566354</v>
       </c>
       <c r="K25">
         <v>3</v>
@@ -1984,28 +1984,28 @@
         <v>1</v>
       </c>
       <c r="M25">
-        <v>14.55416966666666</v>
+        <v>14.467164</v>
       </c>
       <c r="N25">
-        <v>43.66250899999999</v>
+        <v>43.401492</v>
       </c>
       <c r="O25">
-        <v>0.05051436238169709</v>
+        <v>0.05332941903938943</v>
       </c>
       <c r="P25">
-        <v>0.05051436238169709</v>
+        <v>0.05332941903938943</v>
       </c>
       <c r="Q25">
-        <v>0.9447887753015555</v>
+        <v>2.205437171204</v>
       </c>
       <c r="R25">
-        <v>8.503098977713998</v>
+        <v>19.848934540836</v>
       </c>
       <c r="S25">
-        <v>8.588784580121218E-06</v>
+        <v>2.042125000664387E-05</v>
       </c>
       <c r="T25">
-        <v>8.588784580121218E-06</v>
+        <v>2.042125000664387E-05</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2022,22 +2022,22 @@
         <v>24</v>
       </c>
       <c r="E26">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F26">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G26">
-        <v>0.06491533333333334</v>
+        <v>0.1524443333333333</v>
       </c>
       <c r="H26">
-        <v>0.194746</v>
+        <v>0.457333</v>
       </c>
       <c r="I26">
-        <v>0.0001700265860078083</v>
+        <v>0.0003829265417566354</v>
       </c>
       <c r="J26">
-        <v>0.0001700265860078083</v>
+        <v>0.0003829265417566354</v>
       </c>
       <c r="K26">
         <v>3</v>
@@ -2046,28 +2046,28 @@
         <v>1</v>
       </c>
       <c r="M26">
-        <v>81.28845566666666</v>
+        <v>72.34725666666667</v>
       </c>
       <c r="N26">
-        <v>243.865367</v>
+        <v>217.04177</v>
       </c>
       <c r="O26">
-        <v>0.2821345773094156</v>
+        <v>0.2666892534795989</v>
       </c>
       <c r="P26">
-        <v>0.2821345773094157</v>
+        <v>0.2666892534795989</v>
       </c>
       <c r="Q26">
-        <v>5.276867195753556</v>
+        <v>11.02892931104556</v>
       </c>
       <c r="R26">
-        <v>47.491804761782</v>
+        <v>99.26036379941</v>
       </c>
       <c r="S26">
-        <v>4.797037897467601E-05</v>
+        <v>0.0001021223935586016</v>
       </c>
       <c r="T26">
-        <v>4.797037897467601E-05</v>
+        <v>0.0001021223935586016</v>
       </c>
     </row>
   </sheetData>
